--- a/data_analysis/Fig_08_Benefit_payment_USS_March_2021_June_2022.xlsx
+++ b/data_analysis/Fig_08_Benefit_payment_USS_March_2021_June_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/Github_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604271F5-6347-B245-95BC-9730D490466F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D00E45B-3DA6-B348-92D2-4912A12F69E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34520" yWindow="-7220" windowWidth="28100" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="8" r:id="rId1"/>
@@ -549,7 +549,7 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Benefit payment: USS data at Mar '21 (solid) &amp; Jun '22 (dots) using assets at that date and current investment strategy</a:t>
+              <a:t>Benefit payment: USS data at Mar '21 (dash) &amp; Jun '22 (dots) using assets at that date and current investment strategy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -608,6 +608,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -701,6 +702,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -764,6 +766,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -823,7 +826,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="44450" cap="rnd">
+            <a:ln w="57150" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -887,7 +890,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="44450" cap="rnd">
+            <a:ln w="57150" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -951,7 +954,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="44450" cap="rnd">
+            <a:ln w="57150" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -4224,7 +4227,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FD5C4977-6A54-5544-ABC2-C84EDE1BE99B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4268,7 +4271,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6079067"/>
+    <xdr:ext cx="9309100" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4600,7 +4603,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5860,7 +5863,7 @@
   </sheetPr>
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -7493,7 +7496,9 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
